--- a/wxdgaming.game.basic/src/main/cfg/活动.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/活动.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_activity" sheetId="4" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>wxdgaming.boot2.core.timer.CronExpress</t>
+    <t>wxdgaming.spring.boot.core.timer.CronExpress</t>
   </si>
   <si>
     <t>活动流水号</t>
